--- a/questionnaires/categories/countries.xlsx
+++ b/questionnaires/categories/countries.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E58BA-2C20-4429-A213-91BF38D7D55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB710E0F-9D68-414F-AC54-EB2EE25C0283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="168">
   <si>
     <t>title</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
   </si>
   <si>
     <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>United States of America</t>
   </si>
   <si>
     <t>Uruguay</t>
@@ -863,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1276,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1296,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1310,7 +1304,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1324,7 +1318,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1338,7 +1332,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1352,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1366,7 +1360,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1380,7 +1374,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1394,7 +1388,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1408,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1422,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1436,7 +1430,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1450,7 +1444,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1464,7 +1458,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1478,7 +1472,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1492,7 +1486,7 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1506,7 +1500,7 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1520,7 +1514,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1534,7 +1528,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1548,7 +1542,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1562,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1576,7 +1570,7 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1590,7 +1584,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1604,7 +1598,7 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1618,7 +1612,7 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1632,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1646,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1660,7 +1654,7 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1674,7 +1668,7 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1688,7 +1682,7 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1702,7 +1696,7 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1716,7 +1710,7 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1730,7 +1724,7 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1744,7 +1738,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1758,7 +1752,7 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1772,7 +1766,7 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1786,7 +1780,7 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1800,7 +1794,7 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1814,7 +1808,7 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1828,7 +1822,7 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1842,7 +1836,7 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1856,7 +1850,7 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1870,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1884,7 +1878,7 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1898,7 +1892,7 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1912,7 +1906,7 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1926,7 +1920,7 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1940,7 +1934,7 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1954,7 +1948,7 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1968,7 +1962,7 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1982,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1996,7 +1990,7 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2010,7 +2004,7 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2024,7 +2018,7 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2038,7 +2032,7 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2052,7 +2046,7 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2066,7 +2060,7 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2080,7 +2074,7 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2094,7 +2088,7 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2108,7 +2102,7 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2122,7 +2116,7 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2136,7 +2130,7 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2150,7 +2144,7 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2164,7 +2158,7 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2178,7 +2172,7 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2192,7 +2186,7 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2206,7 +2200,7 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2220,7 +2214,7 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2234,7 +2228,7 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2248,7 +2242,7 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2262,7 +2256,7 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2276,7 +2270,7 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2290,7 +2284,7 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2304,7 +2298,7 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2318,7 +2312,7 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2332,7 +2326,7 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2346,7 +2340,7 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2360,7 +2354,7 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2374,7 +2368,7 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2388,7 +2382,7 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2402,7 +2396,7 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2416,7 +2410,7 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2430,7 +2424,7 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2444,7 +2438,7 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2458,7 +2452,7 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2472,7 +2466,7 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2486,7 +2480,7 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2500,7 +2494,7 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2514,7 +2508,7 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2528,7 +2522,7 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2542,7 +2536,7 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2556,7 +2550,7 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2570,7 +2564,7 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2584,7 +2578,7 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2598,7 +2592,7 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2612,7 +2606,7 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2626,7 +2620,7 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2640,7 +2634,7 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2654,7 +2648,7 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2668,7 +2662,7 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2682,7 +2676,7 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2696,7 +2690,7 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2710,7 +2704,7 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2724,7 +2718,7 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2738,7 +2732,7 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2752,7 +2746,7 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2766,7 +2760,7 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2780,7 +2774,7 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2794,7 +2788,7 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2808,7 +2802,7 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2822,7 +2816,7 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2836,7 +2830,7 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2850,7 +2844,7 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2864,7 +2858,7 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2878,7 +2872,7 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2892,7 +2886,7 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2906,7 +2900,7 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2920,7 +2914,7 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2934,7 +2928,7 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2948,7 +2942,7 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2962,7 +2956,7 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2976,7 +2970,7 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2990,7 +2984,7 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3004,7 +2998,7 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3018,7 +3012,7 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3032,7 +3026,7 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3046,7 +3040,7 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3060,7 +3054,7 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3074,7 +3068,7 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3088,7 +3082,7 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3102,7 +3096,7 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3116,7 +3110,7 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3130,7 +3124,7 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3144,7 +3138,7 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3158,40 +3152,12 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165">
-        <v>164</v>
-      </c>
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>169</v>
-      </c>
-      <c r="B166">
-        <v>165</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" t="s">
         <v>5</v>
       </c>
     </row>

--- a/questionnaires/categories/countries.xlsx
+++ b/questionnaires/categories/countries.xlsx
@@ -1,536 +1,529 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB710E0F-9D68-414F-AC54-EB2EE25C0283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="168">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>parentvalue</t>
-  </si>
-  <si>
-    <t>attachmentname</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo, Rep. of</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kingdom of Eswatini</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lao P.D.R.</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Vincent &amp; the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>T.T.U.T.J of T. Palestinian A.</t>
-  </si>
-  <si>
-    <t>TÃ¼rkiye</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parentvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attachmentname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Rep. of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Rep. of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao P.D.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,15 +559,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -856,16 +840,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -879,11 +861,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -893,11 +875,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -907,11 +889,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -921,11 +903,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -935,11 +917,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -949,11 +931,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -963,11 +945,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -977,11 +959,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -991,11 +973,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -1005,11 +987,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -1019,11 +1001,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -1033,11 +1015,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1047,11 +1029,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -1061,11 +1043,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -1075,11 +1057,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -1089,11 +1071,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1103,11 +1085,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -1117,11 +1099,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1131,11 +1113,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -1145,11 +1127,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -1159,11 +1141,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1173,11 +1155,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -1187,11 +1169,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -1201,11 +1183,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -1215,11 +1197,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -1229,11 +1211,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -1243,11 +1225,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -1257,11 +1239,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -1271,11 +1253,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>30</v>
       </c>
       <c r="C30" t="s">
@@ -1285,11 +1267,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>31</v>
       </c>
       <c r="C31" t="s">
@@ -1299,11 +1281,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>32</v>
       </c>
       <c r="C32" t="s">
@@ -1313,11 +1295,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>33</v>
       </c>
       <c r="C33" t="s">
@@ -1327,11 +1309,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>34</v>
       </c>
       <c r="C34" t="s">
@@ -1341,11 +1323,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>35</v>
       </c>
       <c r="C35" t="s">
@@ -1355,11 +1337,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>36</v>
       </c>
       <c r="C36" t="s">
@@ -1369,11 +1351,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>37</v>
       </c>
       <c r="C37" t="s">
@@ -1383,11 +1365,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>38</v>
       </c>
       <c r="C38" t="s">
@@ -1397,11 +1379,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>39</v>
       </c>
       <c r="C39" t="s">
@@ -1411,11 +1393,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>40</v>
       </c>
       <c r="C40" t="s">
@@ -1425,11 +1407,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>41</v>
       </c>
       <c r="C41" t="s">
@@ -1439,11 +1421,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>42</v>
       </c>
       <c r="C42" t="s">
@@ -1453,11 +1435,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>43</v>
       </c>
       <c r="C43" t="s">
@@ -1467,11 +1449,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>44</v>
       </c>
       <c r="C44" t="s">
@@ -1481,11 +1463,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>45</v>
       </c>
       <c r="C45" t="s">
@@ -1495,11 +1477,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>46</v>
       </c>
       <c r="C46" t="s">
@@ -1509,11 +1491,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>47</v>
       </c>
       <c r="C47" t="s">
@@ -1523,11 +1505,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>48</v>
       </c>
       <c r="C48" t="s">
@@ -1537,11 +1519,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>49</v>
       </c>
       <c r="C49" t="s">
@@ -1551,11 +1533,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>50</v>
       </c>
       <c r="C50" t="s">
@@ -1565,11 +1547,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>51</v>
       </c>
       <c r="C51" t="s">
@@ -1579,11 +1561,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>52</v>
       </c>
       <c r="C52" t="s">
@@ -1593,11 +1575,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>53</v>
       </c>
       <c r="C53" t="s">
@@ -1607,11 +1589,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>54</v>
       </c>
       <c r="C54" t="s">
@@ -1621,11 +1603,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>55</v>
       </c>
       <c r="C55" t="s">
@@ -1635,11 +1617,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>56</v>
       </c>
       <c r="C56" t="s">
@@ -1649,11 +1631,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>57</v>
       </c>
       <c r="C57" t="s">
@@ -1663,11 +1645,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>58</v>
       </c>
       <c r="C58" t="s">
@@ -1677,11 +1659,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>59</v>
       </c>
       <c r="C59" t="s">
@@ -1691,11 +1673,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>60</v>
       </c>
       <c r="C60" t="s">
@@ -1705,11 +1687,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>61</v>
       </c>
       <c r="C61" t="s">
@@ -1719,11 +1701,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>62</v>
       </c>
       <c r="C62" t="s">
@@ -1733,11 +1715,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>63</v>
       </c>
       <c r="C63" t="s">
@@ -1747,11 +1729,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>64</v>
       </c>
       <c r="C64" t="s">
@@ -1761,11 +1743,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>65</v>
       </c>
       <c r="C65" t="s">
@@ -1775,11 +1757,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>66</v>
       </c>
       <c r="C66" t="s">
@@ -1789,11 +1771,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>67</v>
       </c>
       <c r="C67" t="s">
@@ -1803,11 +1785,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>68</v>
       </c>
       <c r="C68" t="s">
@@ -1817,11 +1799,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>69</v>
       </c>
       <c r="C69" t="s">
@@ -1831,11 +1813,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>70</v>
       </c>
       <c r="C70" t="s">
@@ -1845,11 +1827,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>71</v>
       </c>
       <c r="C71" t="s">
@@ -1859,11 +1841,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>72</v>
       </c>
       <c r="C72" t="s">
@@ -1873,11 +1855,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>73</v>
       </c>
       <c r="C73" t="s">
@@ -1887,11 +1869,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>74</v>
       </c>
       <c r="C74" t="s">
@@ -1901,11 +1883,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>75</v>
       </c>
       <c r="C75" t="s">
@@ -1915,11 +1897,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>76</v>
       </c>
       <c r="C76" t="s">
@@ -1929,11 +1911,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>77</v>
       </c>
       <c r="C77" t="s">
@@ -1943,11 +1925,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>78</v>
       </c>
       <c r="C78" t="s">
@@ -1957,11 +1939,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>79</v>
       </c>
       <c r="C79" t="s">
@@ -1971,11 +1953,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>80</v>
       </c>
       <c r="C80" t="s">
@@ -1985,11 +1967,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>81</v>
       </c>
       <c r="C81" t="s">
@@ -1999,11 +1981,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>82</v>
       </c>
       <c r="C82" t="s">
@@ -2013,11 +1995,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>83</v>
       </c>
       <c r="C83" t="s">
@@ -2027,11 +2009,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>84</v>
       </c>
       <c r="C84" t="s">
@@ -2041,11 +2023,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>85</v>
       </c>
       <c r="C85" t="s">
@@ -2055,11 +2037,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>86</v>
       </c>
       <c r="C86" t="s">
@@ -2069,11 +2051,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>87</v>
       </c>
       <c r="C87" t="s">
@@ -2083,11 +2065,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>88</v>
       </c>
       <c r="C88" t="s">
@@ -2097,11 +2079,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>89</v>
       </c>
       <c r="C89" t="s">
@@ -2111,11 +2093,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>90</v>
       </c>
       <c r="C90" t="s">
@@ -2125,11 +2107,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>91</v>
       </c>
       <c r="C91" t="s">
@@ -2139,11 +2121,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>92</v>
       </c>
       <c r="C92" t="s">
@@ -2153,11 +2135,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>93</v>
       </c>
       <c r="C93" t="s">
@@ -2167,11 +2149,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>94</v>
       </c>
       <c r="C94" t="s">
@@ -2181,11 +2163,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>95</v>
       </c>
       <c r="C95" t="s">
@@ -2195,11 +2177,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>96</v>
       </c>
       <c r="C96" t="s">
@@ -2209,11 +2191,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>97</v>
       </c>
       <c r="C97" t="s">
@@ -2223,11 +2205,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>98</v>
       </c>
       <c r="C98" t="s">
@@ -2237,11 +2219,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>99</v>
       </c>
       <c r="C99" t="s">
@@ -2251,11 +2233,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>100</v>
       </c>
       <c r="C100" t="s">
@@ -2265,11 +2247,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>101</v>
       </c>
       <c r="C101" t="s">
@@ -2279,11 +2261,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>102</v>
       </c>
       <c r="C102" t="s">
@@ -2293,11 +2275,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>103</v>
       </c>
       <c r="C103" t="s">
@@ -2307,11 +2289,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>104</v>
       </c>
       <c r="C104" t="s">
@@ -2321,11 +2303,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>105</v>
       </c>
       <c r="C105" t="s">
@@ -2335,11 +2317,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>106</v>
       </c>
       <c r="C106" t="s">
@@ -2349,11 +2331,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>107</v>
       </c>
       <c r="C107" t="s">
@@ -2363,11 +2345,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>108</v>
       </c>
       <c r="C108" t="s">
@@ -2377,11 +2359,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>109</v>
       </c>
       <c r="C109" t="s">
@@ -2391,11 +2373,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>110</v>
       </c>
       <c r="C110" t="s">
@@ -2405,11 +2387,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>111</v>
       </c>
       <c r="C111" t="s">
@@ -2419,11 +2401,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>112</v>
       </c>
       <c r="C112" t="s">
@@ -2433,11 +2415,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>113</v>
       </c>
       <c r="C113" t="s">
@@ -2447,11 +2429,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>114</v>
       </c>
       <c r="C114" t="s">
@@ -2461,11 +2443,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>115</v>
       </c>
       <c r="C115" t="s">
@@ -2475,11 +2457,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>116</v>
       </c>
       <c r="C116" t="s">
@@ -2489,11 +2471,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>117</v>
       </c>
       <c r="C117" t="s">
@@ -2503,11 +2485,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>118</v>
       </c>
       <c r="C118" t="s">
@@ -2517,11 +2499,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>119</v>
       </c>
       <c r="C119" t="s">
@@ -2531,11 +2513,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>120</v>
       </c>
       <c r="C120" t="s">
@@ -2545,11 +2527,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>121</v>
       </c>
       <c r="C121" t="s">
@@ -2559,11 +2541,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>122</v>
       </c>
       <c r="C122" t="s">
@@ -2573,11 +2555,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>123</v>
       </c>
       <c r="C123" t="s">
@@ -2587,11 +2569,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>127</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>124</v>
       </c>
       <c r="C124" t="s">
@@ -2601,11 +2583,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>125</v>
       </c>
       <c r="C125" t="s">
@@ -2615,11 +2597,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>126</v>
       </c>
       <c r="C126" t="s">
@@ -2629,11 +2611,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>130</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>127</v>
       </c>
       <c r="C127" t="s">
@@ -2643,11 +2625,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>128</v>
       </c>
       <c r="C128" t="s">
@@ -2657,11 +2639,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>129</v>
       </c>
       <c r="C129" t="s">
@@ -2671,11 +2653,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>133</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>130</v>
       </c>
       <c r="C130" t="s">
@@ -2685,11 +2667,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>131</v>
       </c>
       <c r="C131" t="s">
@@ -2699,11 +2681,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>132</v>
       </c>
       <c r="C132" t="s">
@@ -2713,11 +2695,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>136</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>133</v>
       </c>
       <c r="C133" t="s">
@@ -2727,11 +2709,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>134</v>
       </c>
       <c r="C134" t="s">
@@ -2741,11 +2723,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>138</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>135</v>
       </c>
       <c r="C135" t="s">
@@ -2755,11 +2737,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>139</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>136</v>
       </c>
       <c r="C136" t="s">
@@ -2769,11 +2751,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>140</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>137</v>
       </c>
       <c r="C137" t="s">
@@ -2783,11 +2765,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>141</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>138</v>
       </c>
       <c r="C138" t="s">
@@ -2797,11 +2779,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>142</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>139</v>
       </c>
       <c r="C139" t="s">
@@ -2811,11 +2793,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>143</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>140</v>
       </c>
       <c r="C140" t="s">
@@ -2825,12 +2807,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>144</v>
       </c>
-      <c r="B141">
-        <v>141</v>
+      <c r="B141" t="n">
+        <v>144</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2839,12 +2821,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>145</v>
       </c>
-      <c r="B142">
-        <v>142</v>
+      <c r="B142" t="n">
+        <v>141</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2853,12 +2835,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>146</v>
       </c>
-      <c r="B143">
-        <v>143</v>
+      <c r="B143" t="n">
+        <v>142</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2867,12 +2849,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>147</v>
       </c>
-      <c r="B144">
-        <v>144</v>
+      <c r="B144" t="n">
+        <v>143</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2881,12 +2863,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>148</v>
       </c>
-      <c r="B145">
-        <v>150</v>
+      <c r="B145" t="n">
+        <v>145</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2895,12 +2877,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="B146">
-        <v>145</v>
+      <c r="B146" t="n">
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2909,12 +2891,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>150</v>
       </c>
-      <c r="B147">
-        <v>146</v>
+      <c r="B147" t="n">
+        <v>147</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2923,12 +2905,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="B148">
-        <v>147</v>
+      <c r="B148" t="n">
+        <v>148</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2937,12 +2919,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>152</v>
       </c>
-      <c r="B149">
-        <v>148</v>
+      <c r="B149" t="n">
+        <v>149</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2951,12 +2933,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B150">
-        <v>149</v>
+      <c r="B150" t="n">
+        <v>150</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2965,11 +2947,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>154</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>151</v>
       </c>
       <c r="C151" t="s">
@@ -2979,11 +2961,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>155</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>152</v>
       </c>
       <c r="C152" t="s">
@@ -2993,11 +2975,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>156</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>153</v>
       </c>
       <c r="C153" t="s">
@@ -3007,11 +2989,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>157</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>154</v>
       </c>
       <c r="C154" t="s">
@@ -3021,11 +3003,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>158</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>155</v>
       </c>
       <c r="C155" t="s">
@@ -3035,11 +3017,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" t="s">
         <v>159</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>156</v>
       </c>
       <c r="C156" t="s">
@@ -3049,11 +3031,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>158</v>
       </c>
       <c r="C157" t="s">
@@ -3063,11 +3045,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>161</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>159</v>
       </c>
       <c r="C158" t="s">
@@ -3077,11 +3059,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>162</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>160</v>
       </c>
       <c r="C159" t="s">
@@ -3091,11 +3073,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>163</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>161</v>
       </c>
       <c r="C160" t="s">
@@ -3105,11 +3087,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>164</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>162</v>
       </c>
       <c r="C161" t="s">
@@ -3119,11 +3101,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>165</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>163</v>
       </c>
       <c r="C162" t="s">
@@ -3133,11 +3115,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>166</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>164</v>
       </c>
       <c r="C163" t="s">
@@ -3147,11 +3129,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>167</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>165</v>
       </c>
       <c r="C164" t="s">
@@ -3163,6 +3145,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>